--- a/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st02.xlsx
+++ b/story/Activity Story 活动剧情/act7d5 Stories of Afternoon 午间逸话 午後の逸話/level_act7d5_st02.xlsx
@@ -2208,7 +2208,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Diary"]     Ever since he found out that Warfarin is "Mr. Blood," he has been visiting the medical section regularly.
+    <t xml:space="preserve">[name="Diary"]     Ever since he found out that Warfarin is 'Mr. Blood,' he has been visiting the medical section regularly.
 </t>
   </si>
   <si>
@@ -2232,11 +2232,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ptilopsis"]     This diary must be from the time of his second "duel" with Warfarin.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Aak"]     Hey, "Mr. Blood," how about a little contest of skill?
+    <t xml:space="preserve">[name="Ptilopsis"]     This diary must be from the time of his second 'duel' with Warfarin.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Aak"]     Hey, 'Mr. Blood,' how about a little contest of skill?
 </t>
   </si>
   <si>
@@ -2280,7 +2280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Aak"]     Sure, sure. I'm just asking a question. Give me an answer and I'll leave you to your noble "work."
+    <t xml:space="preserve">[name="Aak"]     Sure, sure. I'm just asking a question. Give me an answer and I'll leave you to your noble 'work.'
 </t>
   </si>
   <si>
@@ -2384,7 +2384,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ptilopsis"]     Oh, I wrote, "I did not dislike it" in this one.
+    <t xml:space="preserve">[name="Ptilopsis"]     Oh, I wrote, 'I did not dislike it' in this one.
 </t>
   </si>
   <si>
@@ -2920,7 +2920,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ptilopsis"]     Is "normal" the correct word here? Is it my life that is abnormal?
+    <t xml:space="preserve">[name="Ptilopsis"]     Is 'normal' the correct word here? Is it my life that is abnormal?
 </t>
   </si>
   <si>
@@ -3268,7 +3268,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="일기"]     둘 중에선 아 씨가 인상에 남습니다. 굉장히 젊어 보이지만, 듣기론 용문에서 유명한 무면허 의사였다는 것 같습니다. 의료팀에는 들어오지 않을 것 같습니다.
+    <t xml:space="preserve">[name="일기"]     둘 중에선 아 씨가 인상에 남습니다. 굉장히 젊어 보이지만, 듣기론 용문에서 유명한 무면허 의사였다는 것 같습니다. 의료부에는 들어오지 않을 것 같습니다.
 </t>
   </si>
   <si>
@@ -3276,11 +3276,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="일기"]     ……그러고 보니, 와파린 씨가 '미스터 블러드'라는 것을 알게 된 아 씨는 종종 의료팀에 찾아오고 있습니다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="일기"]     하지만 의료팀 대다수는 그를 싫어합니다. 그가 우리를 향한 혐오감을 감추지 않았기 때문입니다.
+    <t xml:space="preserve">[name="일기"]     ……그러고 보니, 와파린 씨가 '미스터 블러드'라는 것을 알게 된 아 씨는 종종 의료부에 찾아오고 있습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="일기"]     하지만 의료부 대다수는 그를 싫어합니다. 그가 우리를 향한 혐오감을 감추지 않았기 때문입니다.
 </t>
   </si>
   <si>
@@ -3296,7 +3296,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="일기"]     의료팀 사람들도 그의 성격에 익숙해져 가고 있습니다…… 적어도 표면상으로는 그래 보입니다.
+    <t xml:space="preserve">[name="일기"]     의료부 사람들도 그의 성격에 익숙해져 가고 있습니다…… 적어도 표면상으로는 그래 보입니다.
 </t>
   </si>
   <si>
@@ -3448,7 +3448,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="일기"]     아 씨가 온 이후로 의료팀은 시끌벅적해졌습니다. 물론 유쾌하지 않은 일도 있었지만, 왠지 모르게 싫지는 않았습니다……
+    <t xml:space="preserve">[name="일기"]     아 씨가 온 이후로 의료부는 시끌벅적해졌습니다. 물론 유쾌하지 않은 일도 있었지만, 왠지 모르게 싫지는 않았습니다……
 </t>
   </si>
   <si>
@@ -3792,7 +3792,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="일기"]     저는, 의료팀에게 줄 선물을 사는 게 어떨까 생각했습니다.
+    <t xml:space="preserve">[name="일기"]     저는, 의료부에게 줄 선물을 사는 게 어떨까 생각했습니다.
 </t>
   </si>
   <si>
@@ -3824,7 +3824,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="일기"]     그때, 저는 두 번째 문제에 직면했습니다. 의료팀 동료들이 무엇을 좋아하는지 몰랐기 때문입니다.
+    <t xml:space="preserve">[name="일기"]     그때, 저는 두 번째 문제에 직면했습니다. 의료부 동료들이 무엇을 좋아하는지 몰랐기 때문입니다.
 </t>
   </si>
   <si>
